--- a/July'21/18.07.2021/Bank Statement_1626456684.xlsx
+++ b/July'21/18.07.2021/Bank Statement_1626456684.xlsx
@@ -3245,6 +3245,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3269,12 +3293,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3294,24 +3312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4109,70 +4109,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="342" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
+      <c r="B2" s="343"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="343"/>
+      <c r="N2" s="343"/>
+      <c r="O2" s="343"/>
+      <c r="P2" s="343"/>
+      <c r="Q2" s="343"/>
+      <c r="R2" s="343"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="350" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="345"/>
-      <c r="R3" s="346"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="351"/>
+      <c r="Q3" s="351"/>
+      <c r="R3" s="352"/>
       <c r="T3" s="92"/>
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
@@ -4181,55 +4181,55 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="344" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="346" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="346" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="332" t="s">
+      <c r="D4" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="332" t="s">
+      <c r="E4" s="340" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="332" t="s">
+      <c r="F4" s="340" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="332" t="s">
+      <c r="G4" s="340" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="332" t="s">
+      <c r="H4" s="340" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="332" t="s">
+      <c r="I4" s="340" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="332" t="s">
+      <c r="J4" s="340" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="347" t="s">
+      <c r="K4" s="353" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="340" t="s">
+      <c r="L4" s="332" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="349" t="s">
+      <c r="M4" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="351" t="s">
+      <c r="N4" s="336" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="353" t="s">
+      <c r="O4" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="340" t="s">
+      <c r="P4" s="332" t="s">
         <v>118</v>
       </c>
-      <c r="Q4" s="342" t="s">
+      <c r="Q4" s="348" t="s">
         <v>119</v>
       </c>
       <c r="R4" s="284" t="s">
@@ -4242,23 +4242,23 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="337"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="333"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="333"/>
-      <c r="I5" s="333"/>
-      <c r="J5" s="333"/>
-      <c r="K5" s="348"/>
-      <c r="L5" s="341"/>
-      <c r="M5" s="350"/>
-      <c r="N5" s="352"/>
-      <c r="O5" s="354"/>
-      <c r="P5" s="341"/>
-      <c r="Q5" s="343"/>
+      <c r="A5" s="345"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="341"/>
+      <c r="G5" s="341"/>
+      <c r="H5" s="341"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
+      <c r="K5" s="354"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="339"/>
+      <c r="P5" s="333"/>
+      <c r="Q5" s="349"/>
       <c r="R5" s="285" t="s">
         <v>32</v>
       </c>
@@ -7248,14 +7248,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7268,6 +7260,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9300,7 +9300,7 @@
   <dimension ref="B1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
